--- a/利润表/300920.xlsx
+++ b/利润表/300920.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -734,47 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-09-30 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>94555139.31999999</v>
+        <v>115833172.36</v>
       </c>
       <c r="P2" t="n">
-        <v>302492756.13</v>
+        <v>364968021.05</v>
       </c>
       <c r="Q2" t="n">
-        <v>194592365.46</v>
+        <v>240220551.2</v>
       </c>
       <c r="R2" t="n">
-        <v>16.0236767449</v>
+        <v>7.5645041236</v>
       </c>
       <c r="S2" t="n">
-        <v>156179118.07</v>
+        <v>195030452.27</v>
       </c>
       <c r="T2" t="n">
-        <v>156179118.07</v>
+        <v>195030452.27</v>
       </c>
       <c r="U2" t="n">
-        <v>12.7719092919</v>
+        <v>2.105288919</v>
       </c>
       <c r="V2" t="n">
-        <v>6978117.28</v>
+        <v>9192706.84</v>
       </c>
       <c r="W2" t="n">
-        <v>17227276.86</v>
+        <v>21724301.57</v>
       </c>
       <c r="X2" t="n">
-        <v>-355439.32</v>
+        <v>697423.24</v>
       </c>
       <c r="Y2" t="n">
-        <v>112958893.26</v>
+        <v>132008920.74</v>
       </c>
       <c r="Z2" t="n">
-        <v>115807215.5</v>
+        <v>138953283.84</v>
       </c>
       <c r="AA2" t="n">
-        <v>21252076.18</v>
+        <v>23120111.48</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>3029762.16</v>
+        <v>1735219.27</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -793,19 +793,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>14.4127873717</v>
+        <v>12.359882304</v>
       </c>
       <c r="AQ2" t="n">
-        <v>9.835946722555001</v>
+        <v>32.152952247145</v>
       </c>
       <c r="AR2" t="n">
-        <v>9.453282503307999</v>
+        <v>32.782368137556</v>
       </c>
       <c r="AS2" t="n">
-        <v>85724444.08</v>
+        <v>103139457.56</v>
       </c>
       <c r="AT2" t="n">
-        <v>9.102706253948</v>
+        <v>26.039409362592</v>
       </c>
     </row>
   </sheetData>
